--- a/code/excels/kvConfig/effect_config.xlsx
+++ b/code/excels/kvConfig/effect_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>效果id</t>
   </si>
@@ -26,6 +26,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>对象</t>
+  </si>
+  <si>
     <t>属性_k</t>
   </si>
   <si>
@@ -38,51 +41,72 @@
     <t>effectid</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>propinfo</t>
+  </si>
+  <si>
+    <t>schinese</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>russian</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_3</t>
+  </si>
+  <si>
+    <t>加甲流_3</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>PHYSICAL_ARMOR_BASE</t>
+  </si>
+  <si>
+    <t>PHYSICAL_ARMOR_BASE2</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_6</t>
+  </si>
+  <si>
+    <t>加甲流_6</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>modifier_phy_arm_base_9</t>
+  </si>
+  <si>
+    <t>加甲流_9</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>词条效果表</t>
+  </si>
+  <si>
+    <t>属性详情</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>effect_config</t>
+  </si>
+  <si>
     <t>prop</t>
   </si>
   <si>
-    <t>schinese</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>russian</t>
-  </si>
-  <si>
-    <t>modifier_phy_arm_base_3</t>
-  </si>
-  <si>
-    <t>加甲流_3</t>
-  </si>
-  <si>
-    <t>PHYSICAL_ARMOR_BASE</t>
-  </si>
-  <si>
-    <t>modifier_phy_arm_base_6</t>
-  </si>
-  <si>
-    <t>加甲流_6</t>
-  </si>
-  <si>
-    <t>modifier_phy_arm_base_9</t>
-  </si>
-  <si>
-    <t>加甲流_9</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>词条效果表</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>effect_config</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -90,6 +114,9 @@
   </si>
   <si>
     <t>K+</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>V+</t>
@@ -108,8 +135,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -134,30 +161,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,40 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,21 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -243,9 +247,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,15 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +307,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,25 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +498,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,26 +533,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,30 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -565,9 +590,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,118 +1092,145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.0833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="5.83333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
+    <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+    <row r="2" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:7">
+    <row r="3" s="5" customFormat="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="4" s="5" customFormat="1" spans="4:8">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:7">
+    <row r="5" s="5" customFormat="1" spans="1:8">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9</v>
-      </c>
-      <c r="E5"/>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,103 +1242,128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="12.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="7" max="7" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
+    <row r="12" spans="6:7">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="6:7">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
-    <row r="12" spans="4:5">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+    <row r="14" spans="6:7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
-    <row r="13" spans="4:5">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="4:5">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+    <row r="15" spans="6:7">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/excels/kvConfig/effect_config.xlsx
+++ b/code/excels/kvConfig/effect_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>效果id</t>
   </si>
@@ -68,7 +68,7 @@
     <t>PHYSICAL_ARMOR_BASE</t>
   </si>
   <si>
-    <t>PHYSICAL_ARMOR_BASE2</t>
+    <t>全队增加3点护甲</t>
   </si>
   <si>
     <t>modifier_phy_arm_base_6</t>
@@ -80,6 +80,9 @@
     <t>self</t>
   </si>
   <si>
+    <t>全队增加6点护甲</t>
+  </si>
+  <si>
     <t>modifier_phy_arm_base_9</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>enemy</t>
+  </si>
+  <si>
+    <t>全队增加9点护甲</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -133,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,23 +168,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -198,11 +243,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,14 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -237,17 +273,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,44 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,37 +313,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,85 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,16 +508,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,6 +537,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -543,23 +564,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +596,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -604,145 +610,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,24 +1098,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="23.0833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="6" max="6" width="19.05" customWidth="1"/>
+    <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
@@ -1177,60 +1185,67 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="4:8">
+    <row r="4" s="5" customFormat="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1248,7 +1263,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
@@ -1259,10 +1274,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1271,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1282,10 +1297,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -1294,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -1305,36 +1320,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -1343,10 +1358,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/code/excels/kvConfig/effect_config.xlsx
+++ b/code/excels/kvConfig/effect_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>效果id</t>
   </si>
@@ -35,7 +35,10 @@
     <t>属性_v</t>
   </si>
   <si>
-    <t>{效果id}</t>
+    <t>DOTA_Tooltip_{效果id}</t>
+  </si>
+  <si>
+    <t>DOTA_Tooltip_{效果id}_description</t>
   </si>
   <si>
     <t>effectid</t>
@@ -77,9 +80,6 @@
     <t>加甲流_6</t>
   </si>
   <si>
-    <t>self</t>
-  </si>
-  <si>
     <t>全队增加6点护甲</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>加甲流_9</t>
-  </si>
-  <si>
-    <t>enemy</t>
   </si>
   <si>
     <t>全队增加9点护甲</t>
@@ -141,8 +138,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,43 +158,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,49 +187,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,40 +255,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,55 +310,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,127 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +501,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,48 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,11 +586,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,145 +607,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,29 +1095,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="23.0833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="19.05" customWidth="1"/>
+    <col min="6" max="6" width="15.0666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
     <col min="8" max="8" width="13.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:8">
+    <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1145,83 +1142,119 @@
       <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:8">
+    <row r="2" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:8">
+    <row r="3" s="5" customFormat="1" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:8">
+    <row r="5" s="5" customFormat="1" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1229,22 +1262,31 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1274,10 +1316,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1286,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1297,71 +1339,71 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="6:7">

--- a/code/excels/kvConfig/effect_config.xlsx
+++ b/code/excels/kvConfig/effect_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -158,24 +158,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,115 +248,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,26 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,6 +520,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -550,21 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,17 +585,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,19 +1102,18 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="23.0833333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.66666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.2083333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="15.0666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.9166666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.1083333333333" customWidth="1"/>
+    <col min="6" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:11">
@@ -1305,7 +1304,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
